--- a/data/calendario.xlsx
+++ b/data/calendario.xlsx
@@ -470,7 +470,7 @@
     <col width="13" customWidth="1" min="4" max="4"/>
     <col width="16" customWidth="1" min="5" max="5"/>
     <col width="30" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
     <col width="24" customWidth="1" min="10" max="10"/>
@@ -766,7 +766,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Lógica 2</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
@@ -803,7 +807,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Lógica 2</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
@@ -840,7 +848,11 @@
           <t>Laboratorio</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Lógica 2</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
@@ -881,7 +893,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Lógica 3</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
@@ -918,7 +934,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Lógica 3</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
@@ -955,7 +975,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Funciones 1</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
@@ -992,7 +1016,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Funciones 1</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
@@ -1029,7 +1057,11 @@
           <t>Laboratorio</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Funciones 1</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
@@ -1070,7 +1102,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Funciones 2</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
@@ -1107,7 +1143,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Funciones 2</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
@@ -1144,7 +1184,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Funciones 3</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
@@ -1181,7 +1225,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Funciones 3</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
@@ -1218,7 +1266,11 @@
           <t>Laboratorio</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Funciones 3</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
@@ -1259,7 +1311,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Funciones 4</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
@@ -1296,7 +1352,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Funciones 4</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
@@ -1333,7 +1393,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Funciones 5</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
@@ -1370,7 +1434,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Funciones 5</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
@@ -1407,7 +1475,11 @@
           <t>Laboratorio</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Funciones 5</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
@@ -1448,7 +1520,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Funciones 6</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
@@ -1485,7 +1561,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Funciones 6</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
@@ -1522,7 +1602,11 @@
           <t>Sin clases (Pausa académica)</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Funciones 7</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
@@ -1563,7 +1647,11 @@
           <t>Sin clases (Pausa académica)</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Funciones 7</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
@@ -1604,7 +1692,11 @@
           <t>Sin clases (Pausa académica)</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Funciones 7</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
@@ -1645,7 +1737,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Funciones 8</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
@@ -1682,7 +1778,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Funciones 8</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
@@ -1719,7 +1819,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Funciones 9</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
@@ -1756,7 +1860,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Funciones 9</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
@@ -1793,7 +1901,11 @@
           <t>Laboratorio</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Funciones 9</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
@@ -1834,7 +1946,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Funciones 10</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
@@ -1871,7 +1987,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Funciones 10</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
@@ -1908,7 +2028,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Funciones 11</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
@@ -1945,7 +2069,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Funciones 11</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
@@ -1982,7 +2110,11 @@
           <t>Laboratorio</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Funciones 11</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
@@ -2023,7 +2155,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Funciones 12</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
@@ -2060,7 +2196,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Funciones 12</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
@@ -2097,7 +2237,11 @@
           <t>Trabajo autónomo</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Funciones 13</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
@@ -2138,7 +2282,11 @@
           <t>Trabajo autónomo</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Funciones 13</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
@@ -2179,7 +2327,11 @@
           <t>Trabajo autónomo</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Funciones 13</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
@@ -2261,7 +2413,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Funciones 16</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
@@ -2298,7 +2454,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Funciones 16</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
@@ -2335,7 +2495,11 @@
           <t>Sin clases (Pausa académica)</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Funciones 17</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
@@ -2376,7 +2540,11 @@
           <t>Sin clases (Pausa académica)</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Funciones 17</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
@@ -2417,7 +2585,11 @@
           <t>Sin clases (Pausa académica)</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Funciones 17</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
@@ -2540,7 +2712,11 @@
           <t>Laboratorio</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Lógica 2</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
@@ -2581,7 +2757,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Lógica 2</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
@@ -2618,7 +2798,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Lógica 2</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
@@ -2655,7 +2839,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Lógica 3</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
@@ -2692,7 +2880,11 @@
           <t>Sin clases (Feriado)</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Lógica 3</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
@@ -2733,7 +2925,11 @@
           <t>Laboratorio</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Funciones 1</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
@@ -2774,7 +2970,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Funciones 1</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
@@ -2811,7 +3011,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Funciones 1</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
@@ -2848,7 +3052,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Funciones 2</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
@@ -2885,7 +3093,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Funciones 2</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
@@ -2922,7 +3134,11 @@
           <t>Laboratorio</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Funciones 3</t>
+        </is>
+      </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
@@ -2963,7 +3179,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Funciones 3</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
@@ -3000,7 +3220,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Funciones 3</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr">
         <is>
           <t>Trabajo práctico</t>
@@ -3045,7 +3269,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Funciones 4</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
@@ -3082,7 +3310,11 @@
           <t>Sin clases (Feriado)</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Funciones 4</t>
+        </is>
+      </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
@@ -3123,7 +3355,11 @@
           <t>Laboratorio</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Funciones 5</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
@@ -3164,7 +3400,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Funciones 5</t>
+        </is>
+      </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
@@ -3201,7 +3441,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Funciones 5</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
@@ -3238,7 +3482,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Funciones 6</t>
+        </is>
+      </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
@@ -3275,7 +3523,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Funciones 6</t>
+        </is>
+      </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
@@ -3312,7 +3564,11 @@
           <t>Sin clases (Pausa académica)</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Funciones 7</t>
+        </is>
+      </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
@@ -3353,7 +3609,11 @@
           <t>Sin clases (Pausa académica)</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Funciones 7</t>
+        </is>
+      </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
@@ -3394,7 +3654,11 @@
           <t>Sin clases (Pausa académica)</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Funciones 7</t>
+        </is>
+      </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
@@ -3435,7 +3699,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Funciones 8</t>
+        </is>
+      </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
@@ -3472,7 +3740,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Funciones 8</t>
+        </is>
+      </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
@@ -3509,7 +3781,11 @@
           <t>Laboratorio</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Funciones 9</t>
+        </is>
+      </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
@@ -3550,7 +3826,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Funciones 9</t>
+        </is>
+      </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
@@ -3587,7 +3867,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Funciones 9</t>
+        </is>
+      </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
@@ -3624,7 +3908,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Funciones 10</t>
+        </is>
+      </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
@@ -3661,7 +3949,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Funciones 10</t>
+        </is>
+      </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
@@ -3698,7 +3990,11 @@
           <t>Laboratorio</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Funciones 11</t>
+        </is>
+      </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
@@ -3739,7 +4035,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Funciones 11</t>
+        </is>
+      </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
@@ -3776,7 +4076,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Funciones 11</t>
+        </is>
+      </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
@@ -3813,7 +4117,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Funciones 12</t>
+        </is>
+      </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
@@ -3850,7 +4158,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Funciones 12</t>
+        </is>
+      </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
@@ -3887,7 +4199,11 @@
           <t>Trabajo autónomo</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Funciones 13</t>
+        </is>
+      </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
@@ -3928,7 +4244,11 @@
           <t>Trabajo autónomo</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Funciones 13</t>
+        </is>
+      </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
@@ -3969,7 +4289,11 @@
           <t>Trabajo autónomo</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Funciones 13</t>
+        </is>
+      </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
@@ -4051,7 +4375,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Funciones 16</t>
+        </is>
+      </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
@@ -4088,7 +4416,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Funciones 16</t>
+        </is>
+      </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
@@ -4125,7 +4457,11 @@
           <t>Sin clases (Pausa académica)</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Funciones 17</t>
+        </is>
+      </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
@@ -4166,7 +4502,11 @@
           <t>Sin clases (Pausa académica)</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Funciones 17</t>
+        </is>
+      </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
@@ -4207,7 +4547,11 @@
           <t>Sin clases (Pausa académica)</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Funciones 17</t>
+        </is>
+      </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
@@ -4330,7 +4674,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Lógica 2</t>
+        </is>
+      </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
@@ -4367,7 +4715,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Lógica 2</t>
+        </is>
+      </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
@@ -4404,7 +4756,11 @@
           <t>Laboratorio</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Lógica 2</t>
+        </is>
+      </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
@@ -4445,7 +4801,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Lógica 3</t>
+        </is>
+      </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
@@ -4482,7 +4842,11 @@
           <t>Sin clases (Feriado)</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Lógica 3</t>
+        </is>
+      </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
@@ -4523,7 +4887,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Funciones 1</t>
+        </is>
+      </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
@@ -4560,7 +4928,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Funciones 1</t>
+        </is>
+      </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
@@ -4597,7 +4969,11 @@
           <t>Laboratorio</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Funciones 1</t>
+        </is>
+      </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
@@ -4638,7 +5014,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Funciones 2</t>
+        </is>
+      </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
@@ -4675,7 +5055,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Funciones 2</t>
+        </is>
+      </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
@@ -4712,7 +5096,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Funciones 3</t>
+        </is>
+      </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
@@ -4749,7 +5137,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Funciones 3</t>
+        </is>
+      </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
@@ -4786,7 +5178,11 @@
           <t>Laboratorio</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Funciones 3</t>
+        </is>
+      </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
@@ -4827,7 +5223,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Funciones 4</t>
+        </is>
+      </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
@@ -4864,7 +5264,11 @@
           <t>Sin clases (Feriado)</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Funciones 4</t>
+        </is>
+      </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
@@ -4905,7 +5309,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Funciones 5</t>
+        </is>
+      </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
@@ -4942,7 +5350,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Funciones 5</t>
+        </is>
+      </c>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
@@ -4979,7 +5391,11 @@
           <t>Laboratorio</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Funciones 5</t>
+        </is>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
@@ -5020,7 +5436,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Funciones 6</t>
+        </is>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
@@ -5057,7 +5477,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr"/>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Funciones 6</t>
+        </is>
+      </c>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
@@ -5094,7 +5518,11 @@
           <t>Sin clases (Pausa académica)</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr"/>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Funciones 7</t>
+        </is>
+      </c>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
@@ -5135,7 +5563,11 @@
           <t>Sin clases (Pausa académica)</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Funciones 7</t>
+        </is>
+      </c>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
@@ -5176,7 +5608,11 @@
           <t>Sin clases (Pausa académica)</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr"/>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Funciones 7</t>
+        </is>
+      </c>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
@@ -5217,7 +5653,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr"/>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Funciones 8</t>
+        </is>
+      </c>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
@@ -5254,7 +5694,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Funciones 8</t>
+        </is>
+      </c>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
@@ -5291,7 +5735,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Funciones 9</t>
+        </is>
+      </c>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
@@ -5328,7 +5776,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Funciones 9</t>
+        </is>
+      </c>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
@@ -5365,7 +5817,11 @@
           <t>Laboratorio</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Funciones 9</t>
+        </is>
+      </c>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
@@ -5406,7 +5862,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Funciones 10</t>
+        </is>
+      </c>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
@@ -5443,7 +5903,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Funciones 10</t>
+        </is>
+      </c>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
@@ -5480,7 +5944,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Funciones 11</t>
+        </is>
+      </c>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
@@ -5517,7 +5985,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Funciones 11</t>
+        </is>
+      </c>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
@@ -5554,7 +6026,11 @@
           <t>Laboratorio</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Funciones 11</t>
+        </is>
+      </c>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
@@ -5595,7 +6071,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr"/>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Funciones 12</t>
+        </is>
+      </c>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
@@ -5632,7 +6112,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Funciones 12</t>
+        </is>
+      </c>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
@@ -5669,7 +6153,11 @@
           <t>Trabajo autónomo</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr"/>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Funciones 13</t>
+        </is>
+      </c>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
@@ -5710,7 +6198,11 @@
           <t>Trabajo autónomo</t>
         </is>
       </c>
-      <c r="G135" t="inlineStr"/>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Funciones 13</t>
+        </is>
+      </c>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
@@ -5751,7 +6243,11 @@
           <t>Trabajo autónomo</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr"/>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Funciones 13</t>
+        </is>
+      </c>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
@@ -5833,7 +6329,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr"/>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Funciones 16</t>
+        </is>
+      </c>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
@@ -5870,7 +6370,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr"/>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Funciones 16</t>
+        </is>
+      </c>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
@@ -5907,7 +6411,11 @@
           <t>Sin clases (Pausa académica)</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr"/>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Funciones 17</t>
+        </is>
+      </c>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
@@ -5948,7 +6456,11 @@
           <t>Sin clases (Pausa académica)</t>
         </is>
       </c>
-      <c r="G141" t="inlineStr"/>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Funciones 17</t>
+        </is>
+      </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
@@ -5989,7 +6501,11 @@
           <t>Sin clases (Pausa académica)</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr"/>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Funciones 17</t>
+        </is>
+      </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
@@ -6112,7 +6628,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G145" t="inlineStr"/>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Lógica 2</t>
+        </is>
+      </c>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
@@ -6149,7 +6669,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G146" t="inlineStr"/>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Lógica 2</t>
+        </is>
+      </c>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
@@ -6186,7 +6710,11 @@
           <t>Laboratorio</t>
         </is>
       </c>
-      <c r="G147" t="inlineStr"/>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Lógica 2</t>
+        </is>
+      </c>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
@@ -6227,7 +6755,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr"/>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Lógica 3</t>
+        </is>
+      </c>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
@@ -6264,7 +6796,11 @@
           <t>Sin clases (Feriado)</t>
         </is>
       </c>
-      <c r="G149" t="inlineStr"/>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Lógica 3</t>
+        </is>
+      </c>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
@@ -6305,7 +6841,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr"/>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Funciones 1</t>
+        </is>
+      </c>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
@@ -6342,7 +6882,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G151" t="inlineStr"/>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Funciones 1</t>
+        </is>
+      </c>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
@@ -6379,7 +6923,11 @@
           <t>Laboratorio</t>
         </is>
       </c>
-      <c r="G152" t="inlineStr"/>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Funciones 1</t>
+        </is>
+      </c>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
@@ -6420,7 +6968,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G153" t="inlineStr"/>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Funciones 2</t>
+        </is>
+      </c>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
@@ -6457,7 +7009,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G154" t="inlineStr"/>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Funciones 2</t>
+        </is>
+      </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
@@ -6494,7 +7050,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G155" t="inlineStr"/>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Funciones 3</t>
+        </is>
+      </c>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
@@ -6531,7 +7091,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G156" t="inlineStr"/>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Funciones 3</t>
+        </is>
+      </c>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
@@ -6568,7 +7132,11 @@
           <t>Laboratorio</t>
         </is>
       </c>
-      <c r="G157" t="inlineStr"/>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Funciones 3</t>
+        </is>
+      </c>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
@@ -6609,7 +7177,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G158" t="inlineStr"/>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Funciones 4</t>
+        </is>
+      </c>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
@@ -6646,7 +7218,11 @@
           <t>Sin clases (Feriado)</t>
         </is>
       </c>
-      <c r="G159" t="inlineStr"/>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Funciones 4</t>
+        </is>
+      </c>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
@@ -6687,7 +7263,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G160" t="inlineStr"/>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Funciones 5</t>
+        </is>
+      </c>
       <c r="H160" t="inlineStr">
         <is>
           <t>Prueba</t>
@@ -6732,7 +7312,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G161" t="inlineStr"/>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Funciones 5</t>
+        </is>
+      </c>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
@@ -6769,7 +7353,11 @@
           <t>Laboratorio</t>
         </is>
       </c>
-      <c r="G162" t="inlineStr"/>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Funciones 5</t>
+        </is>
+      </c>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
@@ -6810,7 +7398,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G163" t="inlineStr"/>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Funciones 6</t>
+        </is>
+      </c>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
@@ -6847,7 +7439,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G164" t="inlineStr"/>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Funciones 6</t>
+        </is>
+      </c>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
@@ -6884,7 +7480,11 @@
           <t>Sin clases (Pausa académica)</t>
         </is>
       </c>
-      <c r="G165" t="inlineStr"/>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Funciones 7</t>
+        </is>
+      </c>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
@@ -6925,7 +7525,11 @@
           <t>Sin clases (Pausa académica)</t>
         </is>
       </c>
-      <c r="G166" t="inlineStr"/>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Funciones 7</t>
+        </is>
+      </c>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
@@ -6966,7 +7570,11 @@
           <t>Sin clases (Pausa académica)</t>
         </is>
       </c>
-      <c r="G167" t="inlineStr"/>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Funciones 7</t>
+        </is>
+      </c>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
@@ -7007,7 +7615,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G168" t="inlineStr"/>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Funciones 8</t>
+        </is>
+      </c>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
@@ -7044,7 +7656,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G169" t="inlineStr"/>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Funciones 8</t>
+        </is>
+      </c>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
@@ -7081,7 +7697,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G170" t="inlineStr"/>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Funciones 9</t>
+        </is>
+      </c>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
@@ -7118,7 +7738,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G171" t="inlineStr"/>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Funciones 9</t>
+        </is>
+      </c>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
@@ -7155,7 +7779,11 @@
           <t>Laboratorio</t>
         </is>
       </c>
-      <c r="G172" t="inlineStr"/>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Funciones 9</t>
+        </is>
+      </c>
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
@@ -7196,7 +7824,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G173" t="inlineStr"/>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Funciones 10</t>
+        </is>
+      </c>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
@@ -7233,7 +7865,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G174" t="inlineStr"/>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Funciones 10</t>
+        </is>
+      </c>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
@@ -7270,7 +7906,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G175" t="inlineStr"/>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Funciones 11</t>
+        </is>
+      </c>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
@@ -7307,7 +7947,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G176" t="inlineStr"/>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Funciones 11</t>
+        </is>
+      </c>
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
@@ -7344,7 +7988,11 @@
           <t>Laboratorio</t>
         </is>
       </c>
-      <c r="G177" t="inlineStr"/>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Funciones 11</t>
+        </is>
+      </c>
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
@@ -7385,7 +8033,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G178" t="inlineStr"/>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Funciones 12</t>
+        </is>
+      </c>
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
@@ -7422,7 +8074,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G179" t="inlineStr"/>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Funciones 12</t>
+        </is>
+      </c>
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
@@ -7459,7 +8115,11 @@
           <t>Trabajo autónomo</t>
         </is>
       </c>
-      <c r="G180" t="inlineStr"/>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Funciones 13</t>
+        </is>
+      </c>
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
@@ -7500,7 +8160,11 @@
           <t>Trabajo autónomo</t>
         </is>
       </c>
-      <c r="G181" t="inlineStr"/>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Funciones 13</t>
+        </is>
+      </c>
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
@@ -7541,7 +8205,11 @@
           <t>Trabajo autónomo</t>
         </is>
       </c>
-      <c r="G182" t="inlineStr"/>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Funciones 13</t>
+        </is>
+      </c>
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
@@ -7623,7 +8291,11 @@
           <t>Clase teórica</t>
         </is>
       </c>
-      <c r="G184" t="inlineStr"/>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Funciones 16</t>
+        </is>
+      </c>
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
@@ -7660,7 +8332,11 @@
           <t>Seminario</t>
         </is>
       </c>
-      <c r="G185" t="inlineStr"/>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Funciones 16</t>
+        </is>
+      </c>
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
@@ -7697,7 +8373,11 @@
           <t>Sin clases (Pausa académica)</t>
         </is>
       </c>
-      <c r="G186" t="inlineStr"/>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Funciones 17</t>
+        </is>
+      </c>
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
@@ -7738,7 +8418,11 @@
           <t>Sin clases (Pausa académica)</t>
         </is>
       </c>
-      <c r="G187" t="inlineStr"/>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Funciones 17</t>
+        </is>
+      </c>
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
@@ -7779,7 +8463,11 @@
           <t>Sin clases (Pausa académica)</t>
         </is>
       </c>
-      <c r="G188" t="inlineStr"/>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Funciones 17</t>
+        </is>
+      </c>
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
